--- a/data/output/Pedido_Semana_07_15022026_mascotas_vivo.xlsx
+++ b/data/output/Pedido_Semana_07_15022026_mascotas_vivo.xlsx
@@ -881,7 +881,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="6" t="n">
         <v>123.6</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="S5" s="2" t="n">
         <v>86</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="U5" s="8" t="n">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="6" t="n">
         <v>6.5</v>
@@ -1286,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>5.6</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="2" t="n">
         <v>4</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U10" s="8" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="2" t="n">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="6" t="n">
         <v>15.2</v>
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="6" t="n">
         <v>5.3</v>
@@ -2339,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="6" t="n">
         <v>11.88</v>
@@ -2359,16 +2359,16 @@
         <v>7</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S23" s="2" t="n">
         <v>3</v>
       </c>
       <c r="T23" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U23" s="8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" hidden="1">
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T24" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="8" t="n">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M25" s="6" t="n">
         <v>6.2</v>
@@ -2521,16 +2521,16 @@
         <v>3</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S25" s="2" t="n">
         <v>4</v>
       </c>
       <c r="T25" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U25" s="8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" hidden="1">
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>5.65</v>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>8.949999999999999</v>
@@ -2987,7 +2987,7 @@
         <v>2</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="6" t="n">
         <v>17.3</v>
@@ -3007,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T31" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="8" t="n">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M33" s="6" t="n">
         <v>5.4</v>
@@ -3169,16 +3169,16 @@
         <v>3</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S33" s="2" t="n">
         <v>11</v>
       </c>
       <c r="T33" s="3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="U33" s="8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" hidden="1">
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S37" s="2" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>3</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="6" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S39" s="2" t="n">
         <v>0</v>
@@ -3716,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="6" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>3</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" s="6" t="n">
         <v>0</v>
@@ -3817,16 +3817,16 @@
         <v>0</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S41" s="2" t="n">
         <v>14</v>
       </c>
       <c r="T41" s="3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U41" s="8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" hidden="1">
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="2" t="n">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>2</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" s="6" t="n">
         <v>58.1</v>
@@ -4141,16 +4141,16 @@
         <v>6</v>
       </c>
       <c r="R45" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S45" s="2" t="n">
         <v>4</v>
       </c>
       <c r="T45" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U45" s="8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -4202,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="6" t="n">
         <v>18.4</v>
@@ -4222,7 +4222,7 @@
         <v>6</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S46" s="2" t="n">
         <v>0</v>
@@ -4364,7 +4364,7 @@
         <v>6</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M48" s="6" t="n">
         <v>0</v>
@@ -4384,7 +4384,7 @@
         <v>23</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S48" s="2" t="n">
         <v>0</v>
@@ -4445,7 +4445,7 @@
         <v>3</v>
       </c>
       <c r="L49" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M49" s="6" t="n">
         <v>19.2</v>
@@ -4465,13 +4465,13 @@
         <v>0</v>
       </c>
       <c r="R49" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S49" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T49" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U49" s="8" t="n">
         <v>0</v>
@@ -4546,13 +4546,13 @@
         <v>0</v>
       </c>
       <c r="R50" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T50" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" s="8" t="n">
         <v>0</v>
@@ -4607,7 +4607,7 @@
         <v>8</v>
       </c>
       <c r="L51" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M51" s="6" t="n">
         <v>0</v>
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S51" s="2" t="n">
         <v>0</v>
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" s="6" t="n">
         <v>19.8</v>
@@ -4789,16 +4789,16 @@
         <v>0</v>
       </c>
       <c r="R53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="2" t="n">
         <v>5</v>
       </c>
       <c r="T53" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U53" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54"/>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="C56" s="5" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="C67" s="5" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_07_15022026_mascotas_vivo.xlsx
+++ b/data/output/Pedido_Semana_07_15022026_mascotas_vivo.xlsx
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="6" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="6" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M5" s="6" t="n">
         <v>123.6</v>
@@ -962,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>7.22</v>
@@ -1043,7 +1043,7 @@
         <v>4</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M7" s="6" t="n">
         <v>84.59999999999999</v>
@@ -1124,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="6" t="n">
         <v>6.5</v>
@@ -1205,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="6" t="n">
         <v>26.62</v>
@@ -1286,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>5.6</v>
@@ -1367,7 +1367,7 @@
         <v>2</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>22.2</v>
@@ -1448,7 +1448,7 @@
         <v>3</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="6" t="n">
         <v>22.5</v>
@@ -1529,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>4.3</v>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>6.3</v>
@@ -1691,7 +1691,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" s="6" t="n">
         <v>12.12</v>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="6" t="n">
         <v>15.2</v>
@@ -1853,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="6" t="n">
         <v>68.18000000000001</v>
@@ -1934,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="6" t="n">
         <v>28.78</v>
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="6" t="n">
         <v>5.3</v>
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="6" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="6" t="n">
         <v>55.2</v>
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>69.75</v>
@@ -2339,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" s="6" t="n">
         <v>11.88</v>
@@ -2420,7 +2420,7 @@
         <v>2</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" s="6" t="n">
         <v>13</v>
@@ -2501,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="6" t="n">
         <v>6.2</v>
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>5.65</v>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="6" t="n">
         <v>33.4</v>
@@ -2744,7 +2744,7 @@
         <v>3</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="6" t="n">
         <v>41.3</v>
@@ -2825,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="6" t="n">
         <v>5.65</v>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>8.949999999999999</v>
@@ -2987,7 +2987,7 @@
         <v>2</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" s="6" t="n">
         <v>17.3</v>
@@ -3068,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="6" t="n">
         <v>9.550000000000001</v>
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="6" t="n">
         <v>5.4</v>
@@ -3230,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="6" t="n">
         <v>6.95</v>
@@ -3311,7 +3311,7 @@
         <v>2</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35" s="6" t="n">
         <v>30.62</v>
@@ -3392,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="6" t="n">
         <v>11.75</v>
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="6" t="n">
         <v>60</v>
@@ -3554,7 +3554,7 @@
         <v>2</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M38" s="6" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>3</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M39" s="6" t="n">
         <v>0</v>
@@ -3716,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="6" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>3</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M41" s="6" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="6" t="n">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="6" t="n">
         <v>59.97</v>
@@ -4040,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="6" t="n">
         <v>17.42</v>
@@ -4121,7 +4121,7 @@
         <v>2</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M45" s="6" t="n">
         <v>58.1</v>
@@ -4202,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46" s="6" t="n">
         <v>18.4</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M47" s="6" t="n">
         <v>50.2</v>
@@ -4364,7 +4364,7 @@
         <v>6</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M48" s="6" t="n">
         <v>0</v>
@@ -4445,7 +4445,7 @@
         <v>3</v>
       </c>
       <c r="L49" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M49" s="6" t="n">
         <v>19.2</v>
@@ -4526,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="6" t="n">
         <v>0</v>
@@ -4607,7 +4607,7 @@
         <v>8</v>
       </c>
       <c r="L51" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M51" s="6" t="n">
         <v>0</v>
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="6" t="n">
         <v>19.8</v>
@@ -4769,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="6" t="n">
         <v>10.7</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
